--- a/curation/draft/package12/R12_SDTM_Misc.xlsx
+++ b/curation/draft/package12/R12_SDTM_Misc.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03579A-6B2C-45FB-9212-D7959900096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8D15B-3EA8-410A-98EB-5D1F32CB41E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435057FB-75FC-46E9-8490-847962464C2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{435057FB-75FC-46E9-8490-847962464C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM_brthdtc_new" sheetId="1" r:id="rId1"/>
     <sheet name="SDTM_linking_phrase_edits" sheetId="2" r:id="rId2"/>
+    <sheet name="SDTM_Edits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SDTM_Edits!$A$1:$AG$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_linking_phrase_edits!$A$1:$AG$56</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="261">
   <si>
     <t>package_date</t>
   </si>
@@ -481,6 +483,348 @@
   </si>
   <si>
     <t>Vaginal Bleeding/Spotting Freq Desc</t>
+  </si>
+  <si>
+    <t>C135383</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DD.DDTESTCD</t>
+  </si>
+  <si>
+    <t>AGEDTH</t>
+  </si>
+  <si>
+    <t>Age at Death</t>
+  </si>
+  <si>
+    <t>DDTESTCD</t>
+  </si>
+  <si>
+    <t>C116108</t>
+  </si>
+  <si>
+    <t>DTHDXCD</t>
+  </si>
+  <si>
+    <t>DDTEST</t>
+  </si>
+  <si>
+    <t>C116107</t>
+  </si>
+  <si>
+    <t>DTHDX</t>
+  </si>
+  <si>
+    <t>DDORRES</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>DDORRESU</t>
+  </si>
+  <si>
+    <t>is the unit for the value in</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>DDSTRESC</t>
+  </si>
+  <si>
+    <t>DDSTRESN</t>
+  </si>
+  <si>
+    <t>DDSTRESU</t>
+  </si>
+  <si>
+    <t>DDDTC</t>
+  </si>
+  <si>
+    <t>is the date of occurrence for</t>
+  </si>
+  <si>
+    <t>C112281</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SR.SRTESTCD</t>
+  </si>
+  <si>
+    <t>FLRLDIAM</t>
+  </si>
+  <si>
+    <t>Flare Longest Diameter</t>
+  </si>
+  <si>
+    <t>SRTESTCD</t>
+  </si>
+  <si>
+    <t>C112024</t>
+  </si>
+  <si>
+    <t>SRTEST</t>
+  </si>
+  <si>
+    <t>C112023</t>
+  </si>
+  <si>
+    <t>SROBJ</t>
+  </si>
+  <si>
+    <t>is the object of the observation in</t>
+  </si>
+  <si>
+    <t>IS_ATTRIBUTE_FOR</t>
+  </si>
+  <si>
+    <t>SRORRES</t>
+  </si>
+  <si>
+    <t>SRORRESU</t>
+  </si>
+  <si>
+    <t>C42578</t>
+  </si>
+  <si>
+    <t>C71620</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>mm;cm;in</t>
+  </si>
+  <si>
+    <t>SRSTRESC</t>
+  </si>
+  <si>
+    <t>SRSTRESN</t>
+  </si>
+  <si>
+    <t>SRSTRESU</t>
+  </si>
+  <si>
+    <t>SRLOC</t>
+  </si>
+  <si>
+    <t>C13717</t>
+  </si>
+  <si>
+    <t>C74456</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>specifies the anatomical location of the performance of the test in</t>
+  </si>
+  <si>
+    <t>SPECIFIES</t>
+  </si>
+  <si>
+    <t>SRLAT</t>
+  </si>
+  <si>
+    <t>C25185</t>
+  </si>
+  <si>
+    <t>C99073</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>further specifies the anatomical location in</t>
+  </si>
+  <si>
+    <t>SRMETHOD</t>
+  </si>
+  <si>
+    <t>C82535</t>
+  </si>
+  <si>
+    <t>C85492</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>RULER MEASUREMENT METHOD</t>
+  </si>
+  <si>
+    <t>is the method for the test in</t>
+  </si>
+  <si>
+    <t>SRDTC</t>
+  </si>
+  <si>
+    <t>C112282</t>
+  </si>
+  <si>
+    <t>FLRMDIAM</t>
+  </si>
+  <si>
+    <t>Flare Mean Diameter</t>
+  </si>
+  <si>
+    <t>C122196</t>
+  </si>
+  <si>
+    <t>IDRLDIAM</t>
+  </si>
+  <si>
+    <t>Induration Longest Diameter</t>
+  </si>
+  <si>
+    <t>C112427</t>
+  </si>
+  <si>
+    <t>WHLLDIAM</t>
+  </si>
+  <si>
+    <t>Wheal Longest Diameter</t>
+  </si>
+  <si>
+    <t>C112428</t>
+  </si>
+  <si>
+    <t>WHLMDIAM</t>
+  </si>
+  <si>
+    <t>Wheal Mean Diameter</t>
+  </si>
+  <si>
+    <t>C96613</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RS.RSTESTCD</t>
+  </si>
+  <si>
+    <t>BESTRESP</t>
+  </si>
+  <si>
+    <t>Best Overall Response (RECIST 1.1)</t>
+  </si>
+  <si>
+    <t>RSLNKGRP</t>
+  </si>
+  <si>
+    <t>C117394</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>identifies overall response supported by tumor assessments identified by</t>
+  </si>
+  <si>
+    <t>GROUPS_BY</t>
+  </si>
+  <si>
+    <t>TRLNKGRP</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>RSTESTCD</t>
+  </si>
+  <si>
+    <t>C96782</t>
+  </si>
+  <si>
+    <t>ONCRTSCD</t>
+  </si>
+  <si>
+    <t>C94536</t>
+  </si>
+  <si>
+    <t>RSTEST</t>
+  </si>
+  <si>
+    <t>C96781</t>
+  </si>
+  <si>
+    <t>ONCRTS</t>
+  </si>
+  <si>
+    <t>Best Overall Response</t>
+  </si>
+  <si>
+    <t>RSCAT</t>
+  </si>
+  <si>
+    <t>C25372</t>
+  </si>
+  <si>
+    <t>C124298</t>
+  </si>
+  <si>
+    <t>ONCRSCAT</t>
+  </si>
+  <si>
+    <t>C124415</t>
+  </si>
+  <si>
+    <t>RECIST 1.1</t>
+  </si>
+  <si>
+    <t>RSORRES</t>
+  </si>
+  <si>
+    <t>C96785</t>
+  </si>
+  <si>
+    <t>ONCRSR</t>
+  </si>
+  <si>
+    <t>CR;NE;PD;PR;SD;NED;NON-CR/NON-PD</t>
+  </si>
+  <si>
+    <t>RSSTRESC</t>
+  </si>
+  <si>
+    <t>RSEVAL</t>
+  </si>
+  <si>
+    <t>PERFORMED</t>
+  </si>
+  <si>
+    <t>RSEVALID</t>
+  </si>
+  <si>
+    <t>C117043</t>
+  </si>
+  <si>
+    <t>C96777</t>
+  </si>
+  <si>
+    <t>MEDEVAL</t>
+  </si>
+  <si>
+    <t>RADIOLOGIST 1;RADIOLOGIST 2;RADIOLOGIST 3</t>
+  </si>
+  <si>
+    <t>is an identifier for the evaluator with the role in</t>
+  </si>
+  <si>
+    <t>IDENTIFIES</t>
+  </si>
+  <si>
+    <t>RSDTC</t>
+  </si>
+  <si>
+    <t>INVESTIGATOR;INDEPENDENT ASSESSOR</t>
   </si>
 </sst>
 </file>
@@ -523,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -619,6 +969,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0740BF7D-DCBA-4F36-8F37-5C3BFC86238E}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1457,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5D02C4-1A62-493D-8C72-222F6D9A4193}">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,7 +6466,6519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE42DAD-A472-46AE-BF95-F490682993CC}">
+  <dimension ref="A1:AF78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q49" workbookViewId="0">
+      <selection activeCell="Z69" sqref="Z69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="53.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W30" s="4"/>
+      <c r="X30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W32" s="4"/>
+      <c r="X32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W34" s="4"/>
+      <c r="X34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W35" s="4"/>
+      <c r="X35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W36" s="4"/>
+      <c r="X36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W41" s="4"/>
+      <c r="X41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W42" s="4"/>
+      <c r="X42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W43" s="4"/>
+      <c r="X43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W45" s="4"/>
+      <c r="X45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF46" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W48" s="4"/>
+      <c r="X48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W53" s="4"/>
+      <c r="X53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W54" s="4"/>
+      <c r="X54" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W55" s="4"/>
+      <c r="X55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W56" s="4"/>
+      <c r="X56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W57" s="4"/>
+      <c r="X57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W58" s="4"/>
+      <c r="X58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W59" s="4"/>
+      <c r="X59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W60" s="4"/>
+      <c r="X60" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W62" s="4"/>
+      <c r="X62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W65" s="4"/>
+      <c r="X65" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W66" s="4"/>
+      <c r="X66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W67" s="4"/>
+      <c r="X67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W68" s="4"/>
+      <c r="X68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W69" s="4"/>
+      <c r="X69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="W70" s="4"/>
+      <c r="X70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="W71" s="4"/>
+      <c r="X71" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W72" s="4"/>
+      <c r="X72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W73" s="4"/>
+      <c r="X73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD73" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC75" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W76" s="4"/>
+      <c r="X76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD76" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF76" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W77" s="4"/>
+      <c r="X77" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE77" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF77" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W78" s="4"/>
+      <c r="X78" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AG78" xr:uid="{DD5D02C4-1A62-493D-8C72-222F6D9A4193}"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{B047EDC3-6329-4301-8B3D-008BBE58D7B0}"/>
+    <hyperlink ref="L2" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C116108" xr:uid="{976F7419-0613-4E76-AD90-D3E135A7C963}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{C1E273EF-3BAE-4BB9-B0B5-D22770ADFA45}"/>
+    <hyperlink ref="L3" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C116107" xr:uid="{4F50895A-3E0F-4C3F-939D-2AA34F91E313}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{7A68F61F-4BBD-4F4E-A6ED-2046BBF6980E}"/>
+    <hyperlink ref="J4" r:id="rId6" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{BBE53624-FD18-483E-990A-05D7DBF6CC00}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{A2332FE8-6C24-41B6-9566-04382362A972}"/>
+    <hyperlink ref="J5" r:id="rId8" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C50400" xr:uid="{A39F8552-1E17-49D1-8819-CF230783BF85}"/>
+    <hyperlink ref="L5" r:id="rId9" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C66781" xr:uid="{BC087748-2F2D-47F3-851B-43C67A2BC377}"/>
+    <hyperlink ref="B6" r:id="rId10" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{1A130F5D-7068-4799-8B26-1498C4D88902}"/>
+    <hyperlink ref="J6" r:id="rId11" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{9B4BD95A-6C33-4927-AD4E-4811AD01310F}"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{818AF05C-8C46-44A7-92DD-A4544B495F32}"/>
+    <hyperlink ref="J7" r:id="rId13" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{6AC33FB2-D443-40AD-BF5A-BC42D9176864}"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{3CD5F624-2FB7-49DC-AB1A-669061908C4F}"/>
+    <hyperlink ref="J8" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C50400" xr:uid="{B54059AB-DDC9-4C78-9062-245DDC8ABED0}"/>
+    <hyperlink ref="L8" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C66781" xr:uid="{137509B8-5D1B-415C-B9F9-692F3A6D264C}"/>
+    <hyperlink ref="B9" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C135383" xr:uid="{9BB9385B-A09A-47CF-9436-76D054C6A756}"/>
+    <hyperlink ref="J9" r:id="rId18" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{30E14120-8B82-4779-8485-C6761CAFD1FF}"/>
+    <hyperlink ref="B10" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{6391DC81-572C-4A32-AB0C-F5317D269E17}"/>
+    <hyperlink ref="L10" r:id="rId20" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112024" xr:uid="{CBF2B210-9ACF-4B3F-81F5-CC13C14DDF54}"/>
+    <hyperlink ref="B11" r:id="rId21" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{77CA5C34-8705-42EF-8BDE-2BD5898DDD01}"/>
+    <hyperlink ref="L11" r:id="rId22" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112023" xr:uid="{A29BC534-A472-40ED-A3B0-C8DB4551B497}"/>
+    <hyperlink ref="B12" r:id="rId23" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{5C6C905D-210C-4945-A6A8-BFE2993132EC}"/>
+    <hyperlink ref="B13" r:id="rId24" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{AB54C75F-270D-4515-AEF2-735D8E090028}"/>
+    <hyperlink ref="J13" r:id="rId25" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{513C426C-C9FE-481F-B81E-387980419E0E}"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{F72D98AE-9289-44CD-A0FB-8CD4CEB28E4E}"/>
+    <hyperlink ref="J14" r:id="rId27" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{FE115848-F7F6-4130-9EA6-DB6221F39E65}"/>
+    <hyperlink ref="L14" r:id="rId28" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{AC3B8E57-8097-42BC-8DFA-E346617A4121}"/>
+    <hyperlink ref="B15" r:id="rId29" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{F202CBB1-6A7A-4A36-BCC6-F4ED87B683E0}"/>
+    <hyperlink ref="J15" r:id="rId30" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{04F7A020-3F98-4E84-8D2A-6498A64C43A6}"/>
+    <hyperlink ref="B16" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{58B77FA1-0115-4E45-8177-72F3D828201E}"/>
+    <hyperlink ref="J16" r:id="rId32" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{2F2CC6F5-FAC7-475A-B0DE-9C27E1CCC4C5}"/>
+    <hyperlink ref="B17" r:id="rId33" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{40571FE0-FFCB-497D-9FCA-591B7C7D1009}"/>
+    <hyperlink ref="J17" r:id="rId34" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{F89C8B32-CA1E-4F9D-A611-CD7C37FEA56C}"/>
+    <hyperlink ref="L17" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{FCF4CDD2-72B8-4544-B047-C46F9FB95706}"/>
+    <hyperlink ref="B18" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{DE56E43A-2C6C-4A32-A0B6-9D9E2630C1D4}"/>
+    <hyperlink ref="J18" r:id="rId37" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{F6E46D0B-F3AE-4701-9357-A5C1A5BE5832}"/>
+    <hyperlink ref="L18" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C74456" xr:uid="{A4196EBB-5642-4EA5-9E9D-D5D6DC704CC4}"/>
+    <hyperlink ref="B19" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{17E3D02C-F6AA-4B07-84E2-ABB1F5C34221}"/>
+    <hyperlink ref="J19" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{54111ABE-52A4-4DFF-A142-0600D95B5A5D}"/>
+    <hyperlink ref="L19" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C99073" xr:uid="{2B4F694A-2E9C-47BD-9147-DDA69705FF50}"/>
+    <hyperlink ref="B20" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{21B44410-2946-4009-B022-7AC0CE61B203}"/>
+    <hyperlink ref="J20" r:id="rId43" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{5EDEBF99-D81D-4571-B6DB-58C39A0FF182}"/>
+    <hyperlink ref="L20" r:id="rId44" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85492" xr:uid="{3788115F-9200-4F79-B988-674C5B1A784D}"/>
+    <hyperlink ref="B21" r:id="rId45" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{FF814480-F937-4A01-AAE9-81037E9A5803}"/>
+    <hyperlink ref="J21" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{B4D7A0C3-E426-4AED-BDC9-2628FDA52260}"/>
+    <hyperlink ref="B22" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{B45F2576-9270-4586-9AF6-B68A3E0602CC}"/>
+    <hyperlink ref="L22" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112024" xr:uid="{05355573-8D43-4693-AACE-2C6B7BB1AB02}"/>
+    <hyperlink ref="B23" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{A4B951D2-4861-447C-BA05-8A15F8E85601}"/>
+    <hyperlink ref="L23" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112023" xr:uid="{9D5EE70C-9C8E-4771-87DA-B0911F6CD4CF}"/>
+    <hyperlink ref="B24" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{2F99753D-CC51-42D5-AA26-7F48453036F8}"/>
+    <hyperlink ref="B25" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{5912A2D7-9355-4925-940D-36EB6B4FAD41}"/>
+    <hyperlink ref="J25" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{6B438773-4DC3-40AE-BAC9-DC964AD5A98A}"/>
+    <hyperlink ref="B26" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{7B31314B-179F-454D-8C50-7445642E5383}"/>
+    <hyperlink ref="J26" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{8B29A477-FCB1-440A-A141-B875816091CF}"/>
+    <hyperlink ref="L26" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{079E074F-57BB-4FE8-8938-A3F8802664C4}"/>
+    <hyperlink ref="B27" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{DA39B480-5260-44D1-9162-28801268832A}"/>
+    <hyperlink ref="J27" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{368B2628-939C-4468-B7C9-98190CFB9FB5}"/>
+    <hyperlink ref="B28" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{0AA1DE90-3B11-41E2-BBBC-F185529965B3}"/>
+    <hyperlink ref="J28" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{6A87684E-9286-4E83-831C-5DE9A8CB13DB}"/>
+    <hyperlink ref="B29" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{0F805ED8-ED2B-421A-BC6F-A288CBF6F2A4}"/>
+    <hyperlink ref="J29" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{1BE1548B-3E93-421B-9BC3-0AD24DAF2EEA}"/>
+    <hyperlink ref="L29" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{7FBD1FC2-C883-4C3E-82F1-87F924553F04}"/>
+    <hyperlink ref="B30" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{E2704147-7FDA-4C9B-A3EF-EFA4393FB449}"/>
+    <hyperlink ref="J30" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{C69C9AD6-6737-4C63-9D6B-1F24A9C23A93}"/>
+    <hyperlink ref="L30" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C74456" xr:uid="{558CBC70-CB79-492F-9714-4D8186EFDFF9}"/>
+    <hyperlink ref="B31" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{6EA6D378-6CFF-4AC0-997A-E5EF2E7AA6F5}"/>
+    <hyperlink ref="J31" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{B1C4AC51-5F97-46E3-837F-02A38E3E6C35}"/>
+    <hyperlink ref="L31" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C99073" xr:uid="{40339E5E-7D0E-4073-865E-FBF09A574615}"/>
+    <hyperlink ref="B32" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{89683561-3C4A-4259-A973-CC2FD9A4BDBA}"/>
+    <hyperlink ref="J32" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{0FFA337C-F4D5-4088-90A6-B93E2BA4BAB5}"/>
+    <hyperlink ref="L32" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85492" xr:uid="{41337E24-7D62-4096-852A-A9EBE8BE5B93}"/>
+    <hyperlink ref="B33" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{7C677B51-119B-4FA3-A2CA-C53047AA7F81}"/>
+    <hyperlink ref="J33" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{7858D94C-C3E7-4E07-8B14-87B30A037398}"/>
+    <hyperlink ref="B34" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{78344676-D142-4C53-92A1-539AE4E90CA1}"/>
+    <hyperlink ref="L34" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112024" xr:uid="{97092964-8B6D-495F-8AF0-88285E2DA1E9}"/>
+    <hyperlink ref="B35" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{B975614F-57E1-499F-ACC6-E3A2F48FABFC}"/>
+    <hyperlink ref="L35" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112023" xr:uid="{299C8F1B-CACD-4893-A076-8FCD8B5810E5}"/>
+    <hyperlink ref="B36" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{2BB8E2CB-6A61-4C86-A10F-25FC229F6D6B}"/>
+    <hyperlink ref="B37" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{EAE2E356-AA8D-4F8A-BC79-474CE3D519AF}"/>
+    <hyperlink ref="J37" r:id="rId81" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{3D3B120F-D513-49FA-8709-5A1E1563D7A2}"/>
+    <hyperlink ref="B38" r:id="rId82" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{5E8CE0B8-A8AD-4CE4-949E-12F678158823}"/>
+    <hyperlink ref="J38" r:id="rId83" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{C011469F-DAEC-4871-A0DD-D968A63BB197}"/>
+    <hyperlink ref="L38" r:id="rId84" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{B409F873-A4FC-428A-ACAD-B3018E178B64}"/>
+    <hyperlink ref="B39" r:id="rId85" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{3E7D30E7-0DFF-4820-A342-6EDAFFD52D79}"/>
+    <hyperlink ref="J39" r:id="rId86" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{50E57EBE-8CF8-4225-A0A0-4E88701D3AEA}"/>
+    <hyperlink ref="B40" r:id="rId87" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{20E87F8A-D4D6-476C-BA53-EDB805CFD2BA}"/>
+    <hyperlink ref="J40" r:id="rId88" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{709E65A1-B027-4CD7-AB04-EC4DD9BD79CE}"/>
+    <hyperlink ref="B41" r:id="rId89" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{6E045570-CEA7-43CA-A12B-6FF979F59D34}"/>
+    <hyperlink ref="J41" r:id="rId90" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{F451C9E2-C1FA-47FE-911A-D19910813375}"/>
+    <hyperlink ref="L41" r:id="rId91" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{088CD89E-BA25-4E32-BA14-BFCED725A777}"/>
+    <hyperlink ref="B42" r:id="rId92" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{64F1C581-DB2E-4D64-A762-F616BCAA52A7}"/>
+    <hyperlink ref="J42" r:id="rId93" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{4A5EF9FD-C8C9-4A95-A076-7BBAA6CD2222}"/>
+    <hyperlink ref="L42" r:id="rId94" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C74456" xr:uid="{05409FDC-4779-444B-86DF-54E5CFC55A41}"/>
+    <hyperlink ref="B43" r:id="rId95" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{9F6771A2-B699-4780-8457-EF171080ED6E}"/>
+    <hyperlink ref="J43" r:id="rId96" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{EDB61042-751C-4E0A-A128-A5AF95845EA2}"/>
+    <hyperlink ref="L43" r:id="rId97" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C99073" xr:uid="{3D3D4119-3B07-4177-82C8-1410CD6A9109}"/>
+    <hyperlink ref="B44" r:id="rId98" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{F2907C89-430F-47FD-9946-928FF94AC311}"/>
+    <hyperlink ref="J44" r:id="rId99" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{A34D8838-FA08-41E6-9403-536A3A78C83D}"/>
+    <hyperlink ref="L44" r:id="rId100" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85492" xr:uid="{6DE1A256-8601-4F11-BE56-E7953C1B8D38}"/>
+    <hyperlink ref="B45" r:id="rId101" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C122196" xr:uid="{180C3EE8-65B7-4E77-935D-712C9782668B}"/>
+    <hyperlink ref="J45" r:id="rId102" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{3B2D0DA6-B119-40A2-8DD9-13FA337EFB61}"/>
+    <hyperlink ref="B46" r:id="rId103" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{70E658BB-C697-4452-B044-266B439FAA5C}"/>
+    <hyperlink ref="L46" r:id="rId104" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112024" xr:uid="{87C8D2C5-79B1-435F-970C-7D6327EBCB5F}"/>
+    <hyperlink ref="B47" r:id="rId105" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{CE950394-6825-4963-A87C-89D75F7F6167}"/>
+    <hyperlink ref="L47" r:id="rId106" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112023" xr:uid="{AD2B4277-324D-4EDF-A802-5B107A47FAA8}"/>
+    <hyperlink ref="B48" r:id="rId107" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{BB69D0BA-2CED-4D96-9E52-7C251E6A3BE1}"/>
+    <hyperlink ref="B49" r:id="rId108" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{574A5614-B6AA-40DC-A5BC-65B15B973BF7}"/>
+    <hyperlink ref="J49" r:id="rId109" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{882B1A18-B59D-441B-80DD-E76E5CBE6254}"/>
+    <hyperlink ref="B50" r:id="rId110" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{0EE2BA47-D979-44CF-96C6-DF0E94E86FC0}"/>
+    <hyperlink ref="J50" r:id="rId111" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{21419F10-A37E-4E61-8618-CA7988841CDF}"/>
+    <hyperlink ref="L50" r:id="rId112" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{3996EB11-CCD7-47A4-B8F6-2430253D2DC4}"/>
+    <hyperlink ref="B51" r:id="rId113" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{44F62077-43F4-4FC3-A9CF-55D792254302}"/>
+    <hyperlink ref="J51" r:id="rId114" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{5B5EC229-46FF-4B20-AAB0-857B55091DF0}"/>
+    <hyperlink ref="B52" r:id="rId115" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{AE200BCA-B4FD-4C9E-ABDF-E4A93BA99403}"/>
+    <hyperlink ref="J52" r:id="rId116" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{8461439D-A864-4266-9BE6-45F9C8B52BBB}"/>
+    <hyperlink ref="B53" r:id="rId117" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{B5F9D70D-7152-4D87-849C-AE3973FB4810}"/>
+    <hyperlink ref="J53" r:id="rId118" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{187691CC-58B7-4B96-970E-DA6F1E0BFE4B}"/>
+    <hyperlink ref="L53" r:id="rId119" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{6825E275-5DBB-4AAD-BE5B-5BBC9BFB19C6}"/>
+    <hyperlink ref="B54" r:id="rId120" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{AB42026C-80B6-4C16-9B1B-93B60E73272A}"/>
+    <hyperlink ref="J54" r:id="rId121" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{5B186932-4A2B-4922-BA46-653A7B2225BC}"/>
+    <hyperlink ref="L54" r:id="rId122" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C74456" xr:uid="{53F1A638-D412-452A-8E91-1941773A84C3}"/>
+    <hyperlink ref="B55" r:id="rId123" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{15C57ABB-2EF9-4994-8BBF-9D8552C1A869}"/>
+    <hyperlink ref="J55" r:id="rId124" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{DC23D185-A80C-4262-8BA3-A4C2D957178B}"/>
+    <hyperlink ref="L55" r:id="rId125" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C99073" xr:uid="{6816550F-49C7-4261-A66C-48A1AD156E84}"/>
+    <hyperlink ref="B56" r:id="rId126" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{4FB9B409-0AE3-444C-A0DB-04E742E9A606}"/>
+    <hyperlink ref="J56" r:id="rId127" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{5445B7CF-2B7D-4978-B76E-AA4AA051EF1F}"/>
+    <hyperlink ref="L56" r:id="rId128" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85492" xr:uid="{E132E098-7A98-4CD3-8B09-AA275FE57C4F}"/>
+    <hyperlink ref="B57" r:id="rId129" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112427" xr:uid="{1B38AB59-9D7C-45D3-A269-0E127AB269EA}"/>
+    <hyperlink ref="J57" r:id="rId130" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{82BB948B-A56F-40AF-AE7F-3F19BB7498A3}"/>
+    <hyperlink ref="B58" r:id="rId131" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{CFB52737-783E-498C-A180-86D4FDFA8F5A}"/>
+    <hyperlink ref="L58" r:id="rId132" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112024" xr:uid="{BA37B8E8-872F-4E9E-96C9-7D650752600F}"/>
+    <hyperlink ref="B59" r:id="rId133" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{BD558E44-06DB-4496-9EF3-FB5EEFE49B8C}"/>
+    <hyperlink ref="L59" r:id="rId134" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112023" xr:uid="{EE856E86-EA10-49D3-96F3-2F32347F8FD8}"/>
+    <hyperlink ref="B60" r:id="rId135" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{8006D631-23B9-47A1-94D4-61999C25B9A6}"/>
+    <hyperlink ref="B61" r:id="rId136" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{74399570-3346-45BF-9517-97FA447D54C3}"/>
+    <hyperlink ref="J61" r:id="rId137" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{FEC36395-2A6B-4417-88AA-C22F61C5E533}"/>
+    <hyperlink ref="B62" r:id="rId138" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{5778CF19-132C-44A9-A141-A5E7CB8F6E92}"/>
+    <hyperlink ref="J62" r:id="rId139" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{066E3788-8303-4E35-897D-6C2EEBFCF3E2}"/>
+    <hyperlink ref="L62" r:id="rId140" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{02AF6D92-CF73-491E-AADD-9A0D0CFB36B3}"/>
+    <hyperlink ref="B63" r:id="rId141" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{C2AA137C-28E9-47CB-BB07-328D3C32C5B2}"/>
+    <hyperlink ref="J63" r:id="rId142" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{780A6F87-CE35-430B-9E1E-13BBE8788A55}"/>
+    <hyperlink ref="B64" r:id="rId143" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{2959FDA7-2EC3-4351-A263-1BCDB600EEAB}"/>
+    <hyperlink ref="J64" r:id="rId144" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{8150EC94-7AD7-4DF9-8CF5-8C3E88893A1A}"/>
+    <hyperlink ref="B65" r:id="rId145" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{E55F6DF4-680D-4907-81F4-3AD486120435}"/>
+    <hyperlink ref="J65" r:id="rId146" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{339E1296-A482-42D8-8BE1-80F8CDA68808}"/>
+    <hyperlink ref="L65" r:id="rId147" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C71620" xr:uid="{DD89593E-F170-40F7-AC54-E4E264DBD748}"/>
+    <hyperlink ref="B66" r:id="rId148" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{BBA9CBE0-843F-4A40-B355-E6AA311AA1B9}"/>
+    <hyperlink ref="J66" r:id="rId149" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{153A018F-AC0C-4041-BD1A-3D4D42B63EA2}"/>
+    <hyperlink ref="L66" r:id="rId150" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C74456" xr:uid="{545E2EA8-DFC2-470F-9C7E-3DD4DD1C7AF9}"/>
+    <hyperlink ref="B67" r:id="rId151" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{BB60F297-E44E-4F8A-8CED-B22A189AC9E6}"/>
+    <hyperlink ref="J67" r:id="rId152" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{8C6933BB-4101-4186-85A9-DDD08A29B28E}"/>
+    <hyperlink ref="L67" r:id="rId153" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C99073" xr:uid="{ECA94D70-C8A9-49DF-8EB1-2DFF630EE681}"/>
+    <hyperlink ref="B68" r:id="rId154" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{1382D8FB-EB32-443C-9FBC-93FACCB2E488}"/>
+    <hyperlink ref="J68" r:id="rId155" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{DCE5DF62-5D64-445A-902F-6C12E219565C}"/>
+    <hyperlink ref="L68" r:id="rId156" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C85492" xr:uid="{7FB79641-1CDB-4FDA-8833-EB06D5CAB1B1}"/>
+    <hyperlink ref="B69" r:id="rId157" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112428" xr:uid="{0E1F8E3B-D152-4660-89B4-E9A38CDDAF18}"/>
+    <hyperlink ref="J69" r:id="rId158" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{F3C8753D-E9BA-4F1F-88E9-9DF80BAB704F}"/>
+    <hyperlink ref="B70" r:id="rId159" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{903DC74D-9971-4256-B888-C826E0DFC31C}"/>
+    <hyperlink ref="J70" r:id="rId160" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117394" xr:uid="{87496144-466A-4041-B9F3-C7B5B9E43353}"/>
+    <hyperlink ref="B71" r:id="rId161" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{C52BD3B6-71EA-4D8D-851B-DB3D16CDFD97}"/>
+    <hyperlink ref="L71" r:id="rId162" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96782" xr:uid="{F24C07CB-3525-482F-B1E0-047F56EE10D2}"/>
+    <hyperlink ref="B72" r:id="rId163" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{6BA327CC-340C-4E4D-973A-B365570DCB29}"/>
+    <hyperlink ref="L72" r:id="rId164" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96781" xr:uid="{E10D2632-C8A9-4BF2-8C04-4ED0D9451B2D}"/>
+    <hyperlink ref="B73" r:id="rId165" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{ACAE4F07-D6DA-4B3F-B09B-75F2CFE67996}"/>
+    <hyperlink ref="J73" r:id="rId166" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25372" xr:uid="{8E714CE7-684A-4276-BD0E-B0F1B20B6691}"/>
+    <hyperlink ref="L73" r:id="rId167" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C124298" xr:uid="{D8A67B2B-A92E-4AA2-B2D5-5EB8D72A070D}"/>
+    <hyperlink ref="B74" r:id="rId168" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{BA59FAAE-32D6-40BF-ACC9-8381D4840241}"/>
+    <hyperlink ref="J74" r:id="rId169" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{FDFCC96B-3E11-4265-B02E-44C45255AF30}"/>
+    <hyperlink ref="L74" r:id="rId170" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96785" xr:uid="{95C3760C-AE70-4DA0-B7B4-B1FB8CF1949E}"/>
+    <hyperlink ref="B75" r:id="rId171" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{0EE610D3-208D-4968-9A2E-B5DCEEDD156C}"/>
+    <hyperlink ref="J75" r:id="rId172" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{095858FE-05E0-42C4-930B-26DBAD2B8F27}"/>
+    <hyperlink ref="L75" r:id="rId173" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96785" xr:uid="{42BF3B0E-6765-4B23-8D31-F80AD2658CA7}"/>
+    <hyperlink ref="B76" r:id="rId174" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{47662506-9FFA-44CB-AEEF-9C0C99E0B239}"/>
+    <hyperlink ref="J76" r:id="rId175" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C51824" xr:uid="{38E8D20A-B222-4631-AAAF-7BCA9032C93D}"/>
+    <hyperlink ref="L76" r:id="rId176" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C78735" xr:uid="{582B4262-91EF-4E12-B42E-E7690A582BD9}"/>
+    <hyperlink ref="B77" r:id="rId177" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{60838E73-D789-4F60-90FB-6A53C234E9DD}"/>
+    <hyperlink ref="J77" r:id="rId178" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117043" xr:uid="{6439FC17-651A-4FF0-B538-5302656B4337}"/>
+    <hyperlink ref="L77" r:id="rId179" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96777" xr:uid="{358FFC68-7378-4279-96F5-9DF7A248F1DD}"/>
+    <hyperlink ref="B78" r:id="rId180" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C96613" xr:uid="{3BA0EB20-D1DC-4135-AAC1-EA237F0612BE}"/>
+    <hyperlink ref="J78" r:id="rId181" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{C5D84C6A-7389-497B-BEAC-14FE5F0519A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -6370,28 +13235,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424E9D44-F1F3-4677-861A-08EAB20B82E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD28B7E7-88B9-4751-B0A5-5D90DEBBEBB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB15A64-D696-493D-BDB5-75392A358586}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6408,23 +13271,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD28B7E7-88B9-4751-B0A5-5D90DEBBEBB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424E9D44-F1F3-4677-861A-08EAB20B82E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>